--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Dev\20230723_1326\test_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5ACDC-7BDE-457E-9143-F84805A06818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1470" windowWidth="28335" windowHeight="12773" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="■" sheetId="1" r:id="rId1"/>
+    <sheet name="■" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,194 +20,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
-  <si>
-    <t>■</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>20230723_1356</t>
-    <phoneticPr fontId="2"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">■</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1417</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="源ノ角ゴシック Code JP N"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -222,10 +238,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="源ノ角ゴシック Code JP N"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,7 +253,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -245,31 +261,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -279,31 +318,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="689400" y="657360"/>
-          <a:ext cx="2766600" cy="1112760"/>
+          <a:ext cx="2766240" cy="1112400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="2823882" h="1176617">
@@ -336,11 +368,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln w="25400" cap="rnd">
+        <a:ln cap="rnd" w="25400">
           <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
+            <a:srgbClr val="ff00ff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -370,26 +402,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>230760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152360" y="657360"/>
-          <a:ext cx="2305800" cy="1112760"/>
+          <a:ext cx="2305440" cy="1112400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -414,10 +440,9 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="36000" tIns="0" rIns="36000" bIns="0" anchor="t">
+        <a:bodyPr horzOverflow="overflow" vertOverflow="overflow" lIns="36000" rIns="36000" tIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -425,7 +450,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -434,7 +459,7 @@
             </a:rPr>
             <a:t>あいうえお</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -445,7 +470,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -454,7 +479,7 @@
             </a:rPr>
             <a:t>かきくけこ</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -465,7 +490,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -474,7 +499,7 @@
             </a:rPr>
             <a:t>さしすせそ</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -484,7 +509,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -492,40 +517,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>230040</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4608720" y="657360"/>
-          <a:ext cx="1153440" cy="893160"/>
+          <a:off x="4608000" y="657360"/>
+          <a:ext cx="1153080" cy="892800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1176617" h="941294">
@@ -558,11 +576,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln w="25400" cap="rnd">
+        <a:ln cap="rnd" w="25400">
           <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
+            <a:srgbClr val="ff00ff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -584,40 +602,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="5994360" y="659160"/>
-          <a:ext cx="1153440" cy="893160"/>
+        <a:xfrm flipH="1" rot="10800000">
+          <a:off x="5994000" y="659520"/>
+          <a:ext cx="1153080" cy="892800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1176617" h="941294">
@@ -650,11 +661,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln w="25400" cap="rnd">
+        <a:ln cap="rnd" w="25400">
           <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
+            <a:srgbClr val="ff00ff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -676,7 +687,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228960</xdr:colOff>
@@ -685,31 +696,24 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1150920" y="2190600"/>
-          <a:ext cx="2305800" cy="1113120"/>
+          <a:ext cx="2305440" cy="1112760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="2353235" h="1176617">
@@ -733,9 +737,9 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="25400" cap="rnd">
+        <a:ln cap="rnd" w="25400">
           <a:solidFill>
-            <a:srgbClr val="FF00FF"/>
+            <a:srgbClr val="ff00ff"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -760,315 +764,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1024" width="2.47265625" style="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="2.47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,82 +953,82 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.7">
+    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1324,120 +1036,127 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230723_1417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1446</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -240,6 +243,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="源ノ角ゴシック Code JP N"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="源ノ角ゴシック Code JP N"/>
       <family val="0"/>
     </font>
@@ -312,15 +320,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -329,8 +337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="689400" y="657360"/>
-          <a:ext cx="2766240" cy="1112400"/>
+          <a:off x="688680" y="657360"/>
+          <a:ext cx="2765880" cy="1112040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -403,9 +411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>230760</xdr:colOff>
+      <xdr:colOff>230400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -415,7 +423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152360" y="657360"/>
-          <a:ext cx="2305440" cy="1112400"/>
+          <a:ext cx="2305080" cy="1112040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,9 +534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -538,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4608000" y="657360"/>
-          <a:ext cx="1153080" cy="892800"/>
+          <a:ext cx="1152720" cy="892440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -605,9 +613,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
@@ -622,8 +630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5994000" y="659520"/>
-          <a:ext cx="1153080" cy="892800"/>
+          <a:off x="5994720" y="659880"/>
+          <a:ext cx="1152720" cy="892440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -690,15 +698,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -707,8 +715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1150920" y="2190600"/>
-          <a:ext cx="2305440" cy="1112760"/>
+          <a:off x="1150200" y="2190600"/>
+          <a:ext cx="2305080" cy="1112400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -772,7 +780,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1054,9 +1062,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230723_1446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1615</t>
   </si>
 </sst>
 </file>
@@ -320,15 +323,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -337,8 +340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="688680" y="657360"/>
-          <a:ext cx="2765880" cy="1112040"/>
+          <a:off x="687960" y="657360"/>
+          <a:ext cx="2765160" cy="1111320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -411,9 +414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>230400</xdr:colOff>
+      <xdr:colOff>229680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -423,7 +426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152360" y="657360"/>
-          <a:ext cx="2305080" cy="1112040"/>
+          <a:ext cx="2304360" cy="1111320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,15 +531,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -545,8 +548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4608000" y="657360"/>
-          <a:ext cx="1152720" cy="892440"/>
+          <a:off x="4607280" y="657360"/>
+          <a:ext cx="1152000" cy="891720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -613,13 +616,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
@@ -630,8 +633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5994720" y="659880"/>
-          <a:ext cx="1152720" cy="892440"/>
+          <a:off x="5995080" y="660600"/>
+          <a:ext cx="1152000" cy="891720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -698,15 +701,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -715,8 +718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1150200" y="2190600"/>
-          <a:ext cx="2305080" cy="1112400"/>
+          <a:off x="1149480" y="2190600"/>
+          <a:ext cx="2304360" cy="1111680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -780,7 +783,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,6 +1081,9 @@
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230723_1615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1629</t>
   </si>
 </sst>
 </file>
@@ -329,9 +332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -341,7 +344,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="687960" y="657360"/>
-          <a:ext cx="2765160" cy="1111320"/>
+          <a:ext cx="2764800" cy="1110960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -414,9 +417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>229320</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -426,7 +429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152360" y="657360"/>
-          <a:ext cx="2304360" cy="1111320"/>
+          <a:ext cx="2304000" cy="1110960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,15 +534,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -548,8 +551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4607280" y="657360"/>
-          <a:ext cx="1152000" cy="891720"/>
+          <a:off x="4606560" y="657360"/>
+          <a:ext cx="1151640" cy="891360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -618,11 +621,11 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>1800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
@@ -633,8 +636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5995080" y="660600"/>
-          <a:ext cx="1152000" cy="891720"/>
+          <a:off x="5994720" y="660960"/>
+          <a:ext cx="1151640" cy="891360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -707,9 +710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -719,7 +722,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1149480" y="2190600"/>
-          <a:ext cx="2304360" cy="1111680"/>
+          <a:ext cx="2304000" cy="1111320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -783,7 +786,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,6 +1097,9 @@
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t xml:space="preserve">■</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">20230723_1629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20230723_1715</t>
   </si>
 </sst>
 </file>
@@ -326,15 +329,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>225720</xdr:colOff>
+      <xdr:colOff>224640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -343,8 +346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="687960" y="657360"/>
-          <a:ext cx="2764800" cy="1110960"/>
+          <a:off x="687240" y="657360"/>
+          <a:ext cx="2764440" cy="1110600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -417,9 +420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:colOff>228960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -429,7 +432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1152360" y="657360"/>
-          <a:ext cx="2304000" cy="1110960"/>
+          <a:ext cx="2303640" cy="1110600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -540,9 +543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -552,7 +555,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="4606560" y="657360"/>
-          <a:ext cx="1151640" cy="891360"/>
+          <a:ext cx="1151280" cy="891000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -619,9 +622,9 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
@@ -636,8 +639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" rot="10800000">
-          <a:off x="5994720" y="660960"/>
-          <a:ext cx="1151640" cy="891360"/>
+          <a:off x="5995440" y="661320"/>
+          <a:ext cx="1151280" cy="891000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -704,15 +707,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -721,8 +724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1149480" y="2190600"/>
-          <a:ext cx="2304000" cy="1111320"/>
+          <a:off x="1148760" y="2190600"/>
+          <a:ext cx="2303640" cy="1110960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -786,7 +789,7 @@
   <dimension ref="A1:BE39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,6 +1113,9 @@
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/202300723_1356_■.xlsx
+++ b/202300723_1356_■.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Dev\20230723_1326\test_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732733A5-26A7-4B95-80DF-A967C12EB407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="465" yWindow="2573" windowWidth="28335" windowHeight="12772" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="■" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="■" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,227 +25,212 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">■</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20230723_1715</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+  <si>
+    <t>■</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>20230723_1356</t>
+  </si>
+  <si>
+    <t>20230723_1417</t>
+  </si>
+  <si>
+    <t>20230723_1446</t>
+  </si>
+  <si>
+    <t>20230723_1615</t>
+  </si>
+  <si>
+    <t>20230723_1629</t>
+  </si>
+  <si>
+    <t>20230723_1715</t>
+  </si>
+  <si>
+    <t>20230724_0942</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="源ノ角ゴシック Code JP N"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -250,15 +240,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="源ノ角ゴシック Code JP N"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="源ノ角ゴシック Code JP N"/>
-      <family val="0"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,7 +255,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -278,54 +263,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -339,9 +301,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -353,6 +321,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="2823882" h="1176617">
@@ -385,11 +354,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln cap="rnd" w="25400">
+        <a:ln w="25400" cap="rnd">
           <a:solidFill>
-            <a:srgbClr val="ff00ff"/>
+            <a:srgbClr val="FF00FF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -424,9 +393,15 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -457,9 +432,10 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="overflow" vertOverflow="overflow" lIns="36000" rIns="36000" tIns="0" bIns="0" anchor="t">
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="36000" tIns="0" rIns="36000" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -467,7 +443,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -476,7 +452,7 @@
             </a:rPr>
             <a:t>あいうえお</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -487,7 +463,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -496,7 +472,7 @@
             </a:rPr>
             <a:t>かきくけこ</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -507,7 +483,7 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="ja-JP" sz="1100" spc="-1" strike="noStrike">
+            <a:rPr lang="ja-JP" sz="1100" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -516,7 +492,7 @@
             </a:rPr>
             <a:t>さしすせそ</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -526,7 +502,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -534,7 +510,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>226800</xdr:colOff>
@@ -547,9 +523,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -561,6 +543,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1176617" h="941294">
@@ -593,11 +576,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln cap="rnd" w="25400">
+        <a:ln w="25400" cap="rnd">
           <a:solidFill>
-            <a:srgbClr val="ff00ff"/>
+            <a:srgbClr val="FF00FF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -619,7 +602,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>2160</xdr:colOff>
@@ -632,13 +615,19 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" rot="10800000">
+        <a:xfrm rot="10800000" flipH="1">
           <a:off x="5995440" y="661320"/>
           <a:ext cx="1151280" cy="891000"/>
         </a:xfrm>
@@ -646,6 +635,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="1176617" h="941294">
@@ -678,11 +668,11 @@
           </a:pathLst>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln cap="rnd" w="25400">
+        <a:ln w="25400" cap="rnd">
           <a:solidFill>
-            <a:srgbClr val="ff00ff"/>
+            <a:srgbClr val="FF00FF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -704,7 +694,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>226800</xdr:colOff>
@@ -717,9 +707,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -731,6 +727,7 @@
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
+          <a:cxnLst/>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="2353235" h="1176617">
@@ -754,9 +751,9 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln cap="rnd" w="25400">
+        <a:ln w="25400" cap="rnd">
           <a:solidFill>
-            <a:srgbClr val="ff00ff"/>
+            <a:srgbClr val="FF00FF"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
@@ -781,23 +778,315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BE39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.47265625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="2.47"/>
+    <col min="1" max="1024" width="2.47265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,82 +1259,82 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.7">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,12 +1342,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1066,12 +1355,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,12 +1368,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1092,12 +1381,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1105,12 +1394,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1118,74 +1407,73 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.39375" right="0.39375" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>